--- a/UDBS/excel.xlsx
+++ b/UDBS/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GIT_SchoolProjects\UDBS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\mil0068\Documents\SchoolProjects\UDBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DB4E32-2534-4A2C-93D5-5E20FDECE9F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E119F223-0C0B-4466-926C-B5903D53F118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{D552F1D5-900F-42E8-8766-A7CB204DEF33}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="92">
   <si>
     <t>Název</t>
   </si>
@@ -38,21 +38,9 @@
     <t>Dat. Typ</t>
   </si>
   <si>
-    <t>Primarní klíč</t>
-  </si>
-  <si>
-    <t>Cizí klíč</t>
-  </si>
-  <si>
-    <t>Povinný</t>
-  </si>
-  <si>
     <t>Komentář</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>INTEGER</t>
   </si>
   <si>
@@ -62,33 +50,9 @@
     <t>N</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>VARCHAR(32)</t>
-  </si>
-  <si>
-    <t>BRANDS</t>
-  </si>
-  <si>
-    <t>CHIPSETS</t>
-  </si>
-  <si>
-    <t>codename</t>
-  </si>
-  <si>
-    <t>VARCHAR(64)</t>
-  </si>
-  <si>
-    <t>releasedate</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>specialization</t>
-  </si>
-  <si>
     <t>Značí typ chipsetu - 0: Processor, 1: Graphics</t>
   </si>
   <si>
@@ -105,6 +69,243 @@
   </si>
   <si>
     <t>Datum vydání.</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =0 OR =1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Codename</t>
+  </si>
+  <si>
+    <t>ReleaseDate</t>
+  </si>
+  <si>
+    <t>Specialization</t>
+  </si>
+  <si>
+    <t>CoreFrequency</t>
+  </si>
+  <si>
+    <t>TurboFrequency</t>
+  </si>
+  <si>
+    <t>MemorySize</t>
+  </si>
+  <si>
+    <t>PowerConsumption</t>
+  </si>
+  <si>
+    <t>Brands_ID</t>
+  </si>
+  <si>
+    <t>Chipsets_ID</t>
+  </si>
+  <si>
+    <t>Konzumace grafické karty.</t>
+  </si>
+  <si>
+    <t>Velikost interní paměti.</t>
+  </si>
+  <si>
+    <t>Turbo takt jádra.</t>
+  </si>
+  <si>
+    <t>Takt základního jádra.</t>
+  </si>
+  <si>
+    <t>Název grafické karty.</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(32)</t>
+  </si>
+  <si>
+    <t>ID Procesoru.</t>
+  </si>
+  <si>
+    <t>Název procesoru.</t>
+  </si>
+  <si>
+    <t>Takt jádra procesoru</t>
+  </si>
+  <si>
+    <t>Datum vydání</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>DateRegistered</t>
+  </si>
+  <si>
+    <t>ID Uživatele.</t>
+  </si>
+  <si>
+    <t>Uživatelské jméno.</t>
+  </si>
+  <si>
+    <t>Heslo uživatele.</t>
+  </si>
+  <si>
+    <t>Emailová adresa uživatele.</t>
+  </si>
+  <si>
+    <t>Datum registrace.</t>
+  </si>
+  <si>
+    <t>Highscorer</t>
+  </si>
+  <si>
+    <t>Processor_ID</t>
+  </si>
+  <si>
+    <t>Graphics_ID</t>
+  </si>
+  <si>
+    <t>Users_ID</t>
+  </si>
+  <si>
+    <t>Aktuální ID procesoru, který uživatel má.</t>
+  </si>
+  <si>
+    <t>Aktuální ID grafické karty, který uživatel má.</t>
+  </si>
+  <si>
+    <t>Viewer</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Viewer_Users_ID</t>
+  </si>
+  <si>
+    <t>Highscorer_Users_ID</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>ID Hodnocení.</t>
+  </si>
+  <si>
+    <t>&gt;=0 AND &lt;=5</t>
+  </si>
+  <si>
+    <t>Počet hvězdiček.</t>
+  </si>
+  <si>
+    <t>Datum hodnocení.</t>
+  </si>
+  <si>
+    <t>ID Uživatele, který je viewer.</t>
+  </si>
+  <si>
+    <t>ID Uživatele, který je highscorer.</t>
+  </si>
+  <si>
+    <t>Highscore</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>MinFPS</t>
+  </si>
+  <si>
+    <t>AverageFPS</t>
+  </si>
+  <si>
+    <t>MaxFPS</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>ID Údaje.</t>
+  </si>
+  <si>
+    <t>Naměřené skóre.</t>
+  </si>
+  <si>
+    <t>Datum měření.</t>
+  </si>
+  <si>
+    <t>Minimální počet snímků za sekundu.</t>
+  </si>
+  <si>
+    <t>Průměrný počet snímků za sekundu.</t>
+  </si>
+  <si>
+    <t>Maximální počet snímků za sekundu.</t>
+  </si>
+  <si>
+    <t>ID grafické karty, kterou bylo měření provedeno.</t>
+  </si>
+  <si>
+    <t>ID procesoru, kterou bylo měření provedeno.</t>
+  </si>
+  <si>
+    <t>ID uživatele, který měření prováděl.</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Chipsets</t>
+  </si>
+  <si>
+    <t>Brands</t>
+  </si>
+  <si>
+    <t>Favorite_Highscorer_ID</t>
+  </si>
+  <si>
+    <t>ID highscorer oblíbeného.</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -130,15 +331,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -146,16 +365,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,7 +506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -467,188 +802,1240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BEA32C-1B6D-4DF6-BF63-0AC52743E60D}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="18"/>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="G35" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="19"/>
+      <c r="G44" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="19"/>
+      <c r="G46" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="19"/>
+      <c r="G57" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
+      <c r="B63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="19"/>
+      <c r="G65" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
